--- a/construct_ECM/loads_samples.xlsx
+++ b/construct_ECM/loads_samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfc94933abe91371/RESEARCH/LOF/code/construct_ECM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FEA\ECM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="8_{7BA228C7-7321-4BBD-B087-6B50E072B505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFBF043B-4197-4A9B-8CA6-93FE767F6BE9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1B2090-A65D-447B-AA3E-20E53543FFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="18240" windowHeight="29040" xr2:uid="{6BF26200-AE92-4B2B-B57E-8C65D4E2A5F4}"/>
+    <workbookView xWindow="13950" yWindow="920" windowWidth="25730" windowHeight="20880" xr2:uid="{6BF26200-AE92-4B2B-B57E-8C65D4E2A5F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,11 +381,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF572AD-5FBC-4EEA-9EAA-78B85CEC4FE9}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
@@ -437,10 +439,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>-1235.4000000000001</v>
+        <v>-1500</v>
       </c>
       <c r="B7">
-        <v>-1220.5</v>
+        <v>-1450</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -525,266 +527,274 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>-1310.0999999999999</v>
+        <v>-1370.6</v>
       </c>
       <c r="B18">
-        <v>-1245.7</v>
+        <v>-1302.7</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>-1370.6</v>
+        <v>-1355.8</v>
       </c>
       <c r="B19">
-        <v>-1302.7</v>
+        <v>-1347.3</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>-1355.8</v>
+        <v>-1358.7</v>
       </c>
       <c r="B20">
-        <v>-1347.3</v>
+        <v>-1435.5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>-1358.7</v>
+        <v>-1282.3</v>
       </c>
       <c r="B21">
-        <v>-1435.5</v>
+        <v>-1316.7</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>-1282.3</v>
+        <v>-1363.9</v>
       </c>
       <c r="B22">
-        <v>-1316.7</v>
+        <v>-1355.7</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>-1363.9</v>
+        <v>-1343.6</v>
       </c>
       <c r="B23">
-        <v>-1355.7</v>
+        <v>-1329.9</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>-1343.6</v>
+        <v>-1288.3</v>
       </c>
       <c r="B24">
-        <v>-1329.9</v>
+        <v>-1264.0999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>-1288.3</v>
+        <v>-1300</v>
       </c>
       <c r="B25">
-        <v>-1264.0999999999999</v>
+        <v>-1450</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>-1477.6</v>
+        <v>-1392.8</v>
       </c>
       <c r="B26">
-        <v>-1488.2</v>
+        <v>-1368.1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>-1392.8</v>
+        <v>-1550</v>
       </c>
       <c r="B27">
-        <v>-1368.1</v>
+        <v>-1450</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>-1208.8</v>
+        <v>-1367.6</v>
       </c>
       <c r="B28">
-        <v>-1286.0999999999999</v>
+        <v>-1299.3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>-1367.6</v>
+        <v>-1413.8</v>
       </c>
       <c r="B29">
-        <v>-1299.3</v>
+        <v>-1370.8</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>-1413.8</v>
+        <v>-1302.9000000000001</v>
       </c>
       <c r="B30">
-        <v>-1370.8</v>
+        <v>-1298.3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>-1302.9000000000001</v>
+        <v>-1381.6</v>
       </c>
       <c r="B31">
-        <v>-1298.3</v>
+        <v>-1418.7</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>-1381.6</v>
+        <v>-1214.4000000000001</v>
       </c>
       <c r="B32">
-        <v>-1418.7</v>
+        <v>-1341.1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>-1214.4000000000001</v>
+        <v>-1380.2</v>
       </c>
       <c r="B33">
-        <v>-1341.1</v>
+        <v>-1281.2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>-1380.2</v>
+        <v>-1331.3</v>
       </c>
       <c r="B34">
-        <v>-1281.2</v>
+        <v>-1388.8</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>-1331.3</v>
+        <v>-1330.4</v>
       </c>
       <c r="B35">
-        <v>-1388.8</v>
+        <v>-1317.1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>-1330.4</v>
+        <v>-1311.1</v>
       </c>
       <c r="B36">
-        <v>-1317.1</v>
+        <v>-1269.4000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>-1311.1</v>
+        <v>-1329.2</v>
       </c>
       <c r="B37">
-        <v>-1269.4000000000001</v>
+        <v>-1350.6</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>-1329.2</v>
+        <v>-1332.1</v>
       </c>
       <c r="B38">
-        <v>-1350.6</v>
+        <v>-1411.1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>-1332.1</v>
+        <v>-1370.9</v>
       </c>
       <c r="B39">
-        <v>-1411.1</v>
+        <v>-1322.5</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>-1370.9</v>
+        <v>-1309.4000000000001</v>
       </c>
       <c r="B40">
-        <v>-1322.5</v>
+        <v>-1374.1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>-1309.4000000000001</v>
+        <v>-1348.8</v>
       </c>
       <c r="B41">
-        <v>-1374.1</v>
+        <v>-1281.9000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>-1348.8</v>
+        <v>-1350.5</v>
       </c>
       <c r="B42">
-        <v>-1281.9000000000001</v>
+        <v>-1409.7</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>-1350.5</v>
+        <v>-1420.8</v>
       </c>
       <c r="B43">
-        <v>-1409.7</v>
+        <v>-1398.2</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>-1420.8</v>
+        <v>-1356.5</v>
       </c>
       <c r="B44">
-        <v>-1398.2</v>
+        <v>-1304.0999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>-1356.5</v>
+        <v>-1295.9000000000001</v>
       </c>
       <c r="B45">
-        <v>-1304.0999999999999</v>
+        <v>-1331.7</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>-1295.9000000000001</v>
+        <v>-1311.7</v>
       </c>
       <c r="B46">
-        <v>-1331.7</v>
+        <v>-1327.6</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>-1311.7</v>
+        <v>-1306.7</v>
       </c>
       <c r="B47">
-        <v>-1327.6</v>
+        <v>-1361.3</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>-1306.7</v>
+        <v>-1389.1</v>
       </c>
       <c r="B48">
-        <v>-1361.3</v>
+        <v>-1321.9</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>-1389.1</v>
+        <v>-1474.8</v>
       </c>
       <c r="B49">
-        <v>-1321.9</v>
+        <v>-1341.4</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>-1474.8</v>
+        <v>-1500</v>
       </c>
       <c r="B50">
-        <v>-1341.4</v>
+        <v>-1250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>-1250</v>
+      </c>
+      <c r="B51">
+        <v>-1500</v>
       </c>
     </row>
   </sheetData>
